--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2007.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2007.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162868015112472</v>
+        <v>1.033695101737976</v>
       </c>
       <c r="B1">
-        <v>2.314470117348359</v>
+        <v>3.088480949401855</v>
       </c>
       <c r="C1">
-        <v>7.973006669521264</v>
+        <v>6.727529525756836</v>
       </c>
       <c r="D1">
-        <v>2.430745533319109</v>
+        <v>1.864564061164856</v>
       </c>
       <c r="E1">
-        <v>1.220921732709845</v>
+        <v>1.316844940185547</v>
       </c>
     </row>
   </sheetData>
